--- a/coherefulllistoflinks.xlsx
+++ b/coherefulllistoflinks.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de28da29e0687090/PersonalPythonProjects/Hackathon2022/DiscordData/application/coheresemanticsearchtool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98636E75-E12F-4C8F-B5BB-FA36CE51BEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{98636E75-E12F-4C8F-B5BB-FA36CE51BEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{400D5BEB-6AD2-4D4E-B46F-284B420EC8F8}"/>
   <bookViews>
-    <workbookView xWindow="-6525" yWindow="-16395" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-6525" yWindow="-16395" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coherefulllistoflinks" sheetId="1" r:id="rId1"/>
@@ -1879,7 +1879,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2713,10 +2713,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>

--- a/coherefulllistoflinks.xlsx
+++ b/coherefulllistoflinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de28da29e0687090/PersonalPythonProjects/Hackathon2022/DiscordData/application/coheresemanticsearchtool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{98636E75-E12F-4C8F-B5BB-FA36CE51BEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{400D5BEB-6AD2-4D4E-B46F-284B420EC8F8}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{98636E75-E12F-4C8F-B5BB-FA36CE51BEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61DB7C98-4BD7-40E6-A667-3AD660AF0231}"/>
   <bookViews>
     <workbookView xWindow="-6525" yWindow="-16395" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2716,11 +2716,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="A242" sqref="A242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="54.6640625" customWidth="1"/>
+    <col min="3" max="3" width="90.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">

--- a/coherefulllistoflinks.xlsx
+++ b/coherefulllistoflinks.xlsx
@@ -8,14 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de28da29e0687090/PersonalPythonProjects/Hackathon2022/DiscordData/application/coheresemanticsearchtool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{98636E75-E12F-4C8F-B5BB-FA36CE51BEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61DB7C98-4BD7-40E6-A667-3AD660AF0231}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{98636E75-E12F-4C8F-B5BB-FA36CE51BEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A2FCBCE-E850-4EA6-8515-C3FE8ADE073F}"/>
   <bookViews>
-    <workbookView xWindow="-6525" yWindow="-16395" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="810" yWindow="-12975" windowWidth="10635" windowHeight="11085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coherefulllistoflinks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">coherefulllistoflinks!$A$1:$E$302</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2716,14 +2732,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="A242" sqref="A242"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="54.6640625" customWidth="1"/>
+    <col min="2" max="2" width="80.6640625" customWidth="1"/>
     <col min="3" max="3" width="90.3984375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -7861,6 +7879,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E302" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>